--- a/TestCases/Data/CSV/test_supply_IFC_result1.xlsx
+++ b/TestCases/Data/CSV/test_supply_IFC_result1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Material&amp;Quality</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Length</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -481,65 +481,60 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Moment of Inertia</t>
+          <t>Iy e-6</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Profile</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Site_lat</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Site_lat</t>
+          <t>Site_lon</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Site_lon</t>
+          <t>Gwp_factor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Gwp_factor</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Distance</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Distance</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Price pr element</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Price pr element</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>GWP pr element</t>
         </is>
@@ -553,79 +548,76 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#5151=IfcSlab('33as9O3zjEnAsHHJOULX_B',#20,'Floor:HD-265:1393736',$,'Floor:HD-265',#5110,#5150,'1393736',.FLOOR.)</t>
+          <t>#1430=IfcBeam('17A_Mfs0P15fckYKciJdSV',#20,'Precast-Rectangular Beam:200RB500:468219',$,'Precast-Rectangular Beam:200RB500',#1410,#1429,'468219')</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcBeam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concrete </t>
-        </is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>11.58</v>
       </c>
       <c r="G2" t="n">
-        <v>35.06</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>11.66</v>
+        <v>0.1853958</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>110.375892</v>
+        <v>0.01601</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>200RB500</t>
+        </is>
       </c>
       <c r="L2" t="n">
-        <v>0.019125315</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
         <v>491</v>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
         <v>100</v>
       </c>
-      <c r="R2" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>18.53958</v>
+      </c>
       <c r="T2" t="n">
-        <v>11037.5892</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>314.82</v>
-      </c>
-      <c r="W2" t="n">
-        <v>314.82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#5267=IfcBeam('33as9O3zjEnAsHHJOULXxA',#20,'Beam IPE:IPE 270:1393929',$,'Beam IPE:IPE 270',#5254,#5266,'1393929')</t>
+          <t>#1469=IfcBeam('17A_Mfs0P15fckYKciJdQy',#20,'Precast-Rectangular Beam:200RB500:468312',$,'Precast-Rectangular Beam:200RB500',#1449,#1468,'468312')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,71 +638,66 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>355</v>
+        <v>11.35</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1780815</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01569</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>200RB500</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>491</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>100</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>17.80815</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3510000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>200</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6700</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>70.20000000000002</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>7.020000000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.020000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +708,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#5202=IfcBeam('33as9O3zjEnAsHHJOULXyg',#20,'Beam IPE:IPE 270:1393897',$,'Beam IPE:IPE 270',#5185,#5201,'1393897')</t>
+          <t>#9209=IfcBeam('389WSRrfb46eCb6n$sCUQy',#20,'IPE-Beams:IPE180:475217',$,'IPE-Beams:IPE180',#9196,#9208,'475217')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -731,71 +718,66 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>345</v>
+      </c>
       <c r="F4" t="n">
-        <v>355</v>
+        <v>8.81</v>
       </c>
       <c r="G4" t="n">
-        <v>34.67</v>
+        <v>0.18</v>
       </c>
       <c r="H4" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13</v>
+        <v>0.018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.216917</v>
+        <v>0.002</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>IPE180</t>
+        </is>
       </c>
       <c r="L4" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>100</v>
+        <v>13.17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>200</v>
       </c>
       <c r="Q4" t="n">
-        <v>200</v>
-      </c>
-      <c r="R4" t="n">
         <v>6700</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3.524</v>
+      </c>
       <c r="T4" t="n">
-        <v>243.3834000000001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="V4" t="n">
-        <v>7.020000000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.020000000000001</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +788,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#5294=IfcBeam('33as9O3zjEnAsHHJOULXxO',#20,'Beam IPE:IPE 270:1393947',$,'Beam IPE:IPE 270',#5281,#5293,'1393947')</t>
+          <t>#9236=IfcBeam('389WSRrfb46eCb6n$sCUQ$',#20,'IPE-Beams:IPE180:475218',$,'IPE-Beams:IPE180',#9223,#9235,'475218')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -816,71 +798,66 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>345</v>
+      </c>
       <c r="F5" t="n">
-        <v>355</v>
+        <v>8.81</v>
       </c>
       <c r="G5" t="n">
-        <v>11.27</v>
+        <v>0.18</v>
       </c>
       <c r="H5" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>0.13</v>
+        <v>0.018</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3955770000000001</v>
+        <v>0.002</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>IPE180</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>100</v>
+        <v>13.17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>200</v>
       </c>
       <c r="Q5" t="n">
-        <v>200</v>
-      </c>
-      <c r="R5" t="n">
         <v>6700</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>3.524</v>
+      </c>
       <c r="T5" t="n">
-        <v>79.11540000000001</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="V5" t="n">
-        <v>7.020000000000001</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.020000000000001</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="6">
@@ -891,79 +868,76 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#7660=IfcSlab('2I9WHjl$58$uOG2hQYWWMS',#20,'Punktfundament:F4:1408628',$,'Punktfundament:F4',#7650,#7659,'1408628',.BASESLAB.)</t>
+          <t>#9263=IfcBeam('389WSRrfb46eCb6n$sCUQ_',#20,'IPE-Beams:IPE180:475219',$,'IPE-Beams:IPE180',#9250,#9262,'475219')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcBeam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>345</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.017</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
+        <v>0.002</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>IPE180</t>
+        </is>
       </c>
       <c r="L6" t="n">
-        <v>1.333333333333333</v>
+        <v>13.17</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>491</v>
+        <v>100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>200</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
-      </c>
-      <c r="R6" t="n">
-        <v>100</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>6700</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>3.48</v>
+      </c>
       <c r="T6" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="V6" t="n">
-        <v>400</v>
-      </c>
-      <c r="W6" t="n">
-        <v>400</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="7">
@@ -974,79 +948,76 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#7691=IfcSlab('2I9WHjl$58$uOG2hQYWWMU',#20,'Punktfundament:F3:1408630',$,'Punktfundament:F3',#7681,#7690,'1408630',.BASESLAB.)</t>
+          <t>#9371=IfcBeam('389WSRrfb46eCb6n$sCUQw',#20,'IPE-Beams:IPE180:475223',$,'IPE-Beams:IPE180',#9358,#9370,'475223')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcBeam</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>345</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>8.82</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0.018</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
+        <v>0.002</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>IPE180</t>
+        </is>
       </c>
       <c r="L7" t="n">
-        <v>1.333333333333333</v>
+        <v>13.17</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>491</v>
+        <v>100</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>200</v>
       </c>
       <c r="Q7" t="n">
-        <v>100</v>
-      </c>
-      <c r="R7" t="n">
-        <v>100</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>6700</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>3.528</v>
+      </c>
       <c r="T7" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="V7" t="n">
-        <v>400</v>
-      </c>
-      <c r="W7" t="n">
-        <v>400</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="8">
@@ -1057,79 +1028,76 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#8453=IfcSlab('2r6pcFq511UeZXcuDB_GrX',#20,'Floor:Lettak-element:1412380',$,'Floor:Lettak-element',#8439,#8452,'1412380',.FLOOR.)</t>
+          <t>#898=IfcColumn('3DPIosmX90pgucc6fc_nsE',#20,'Precast-Rectangular Column:400x400mm:423896',$,'Precast-Rectangular Column:400x400mm',#897,#894,'423896')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IfcBeam</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Timber - C24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>35.3</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.008877999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.648000000000001</v>
+        <v>0.00386</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>400x400mm</t>
+        </is>
       </c>
       <c r="L8" t="n">
-        <v>0.002133333333333334</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>200</v>
+        <v>491</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>100</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>70</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>0.1544</v>
+      </c>
       <c r="T8" t="n">
-        <v>8.472000000000001</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="V8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1140,79 +1108,76 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#7660=IfcSlab('2I9WHjl$58$uOG2hQYWWMS',#20,'Punktfundament:F4:1408628',$,'Punktfundament:F4',#7650,#7659,'1408628',.BASESLAB.)</t>
+          <t>#919=IfcColumn('3DPIosmX90pgucc6fc_n99',#20,'Precast-Rectangular Column:400x400mm:423967',$,'Precast-Rectangular Column:400x400mm',#918,#915,'423967')</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IfcDoor</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.008877999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
+        <v>0.00386</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>400x400mm</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>200</v>
+        <v>491</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>100</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>80</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0.1544</v>
+      </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1223,79 +1188,76 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#7691=IfcSlab('2I9WHjl$58$uOG2hQYWWMU',#20,'Punktfundament:F3:1408630',$,'Punktfundament:F3',#7681,#7690,'1408630',.BASESLAB.)</t>
+          <t>#936=IfcColumn('3DPIosmX90pgucc6fc_n8S',#20,'Precast-Rectangular Column:400x400mm:424010',$,'Precast-Rectangular Column:400x400mm',#935,#932,'424010')</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IfcDoor</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.008877999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.5</v>
+        <v>0.00386</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>400x400mm</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>0.28125</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>200</v>
+        <v>491</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>100</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>80</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0.1544</v>
+      </c>
       <c r="T10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="V10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -1306,79 +1268,1964 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#8453=IfcSlab('2r6pcFq511UeZXcuDB_GrX',#20,'Floor:Lettak-element:1412380',$,'Floor:Lettak-element',#8439,#8452,'1412380',.FLOOR.)</t>
+          <t>#953=IfcColumn('3DPIosmX90pgucc6fc_nBe',#20,'Precast-Rectangular Column:500x500mm:424126',$,'Precast-Rectangular Column:500x500mm',#952,#949,'424126')</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.011408</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00496</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>500x500mm</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>491</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>115</v>
+      </c>
+      <c r="V11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>#3141=IfcColumn('3TtUR3$o5ASfYbQtlTqtnw',#20,'H-Wide Flange-Column:HE340A:471579',$,'H-Wide Flange-Column:HE340A',#3140,#3137,'471579')</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>345</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HE340A</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>276.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>495</v>
+      </c>
+      <c r="V12" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#3158=IfcColumn('3TtUR3$o5ASfYbQtlTqtnM',#20,'H-Wide Flange-Column:HE340A:471607',$,'H-Wide Flange-Column:HE340A',#3157,#3154,'471607')</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>345</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>HE340A</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>276.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>495</v>
+      </c>
+      <c r="V13" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#3175=IfcColumn('3TtUR3$o5ASfYbQtlTqtmm',#20,'H-Wide Flange-Column:HE340A:471633',$,'H-Wide Flange-Column:HE340A',#3174,#3171,'471633')</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>345</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HE340A</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>276.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>495</v>
+      </c>
+      <c r="V14" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#3192=IfcColumn('3TtUR3$o5ASfYbQtlTqtmG',#20,'H-Wide Flange-Column:HE220A:471665',$,'H-Wide Flange-Column:HE220A',#3191,#3188,'471665')</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>345</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HE220A</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>315</v>
+      </c>
+      <c r="V15" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>#3209=IfcColumn('3TtUR3$o5ASfYbQtlTqtpg',#20,'H-Wide Flange-Column:HE220A:471691',$,'H-Wide Flange-Column:HE220A',#3208,#3205,'471691')</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>345</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HE220A</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>315</v>
+      </c>
+      <c r="V16" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#3226=IfcColumn('3TtUR3$o5ASfYbQtlTqto8',#20,'H-Wide Flange-Column:HE220A:471785',$,'H-Wide Flange-Column:HE220A',#3225,#3222,'471785')</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>345</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HE220A</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>315</v>
+      </c>
+      <c r="V17" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>#3243=IfcColumn('3TtUR3$o5ASfYbQtlTqtoB',#20,'H-Wide Flange-Column:HE220A:471786',$,'H-Wide Flange-Column:HE220A',#3242,#3239,'471786')</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>345</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>HE220A</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>315</v>
+      </c>
+      <c r="V18" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>S17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>#3260=IfcColumn('3TtUR3$o5ASfYbQtlTqtoA',#20,'H-Wide Flange-Column:HE220A:471787',$,'H-Wide Flange-Column:HE220A',#3259,#3256,'471787')</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>IfcColumn</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>345</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HE220A</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>315</v>
+      </c>
+      <c r="V19" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>#10206=IfcWindow('389WSRrfb46eCb6n$sCVLu',#20,'Awning - 1L:AW1212:480149',$,'Awning - 1L:AW1212',#10205,#10202,'480149',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>IfcDoor</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>200</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>70</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>S19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>#10225=IfcWindow('389WSRrfb46eCb6n$sCVLn',#20,'Awning - 1L:AW1212:480156',$,'Awning - 1L:AW1212',#10224,#10221,'480156',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>IfcDoor</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>200</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>70</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>#10240=IfcWindow('389WSRrfb46eCb6n$sCVLK',#20,'Awning - 1L:AW1212:480185',$,'Awning - 1L:AW1212',#10239,#10236,'480185',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>IfcDoor</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>200</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>70</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>#10336=IfcWindow('389WSRrfb46eCb6n$sCVK4',#20,'Awning - 1LT:AW1812:480233',$,'Awning - 1LT:AW1812',#10335,#10332,'480233',1.8000000000000023,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>IfcDoor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>200</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>70</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>#522=IfcWallStandardCase('3DPIosmX90pgucc6fc_nol',#20,'Basic Wall:Exterior - 300mm Concrete:423673',$,'Basic Wall:Exterior - 300mm Concrete',#510,#521,'423673')</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>35</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.829999999999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>491</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>100</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>6812.099999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>27</v>
+      </c>
+      <c r="V24" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>#861=IfcWall('3DPIosmX90pgucc6fc_noi',#20,'Basic Wall:Exterior - 225mm Concrete:423674',$,'Basic Wall:Exterior - 225mm Concrete',#536,#860,'423674')</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>35</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J25" t="n">
+        <v>83.94200000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>491</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>100</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>78905.48000000001</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>205.39</v>
+      </c>
+      <c r="V25" t="n">
+        <v>205.39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>S24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>#3370=IfcWallStandardCase('3TtUR3$o5ASfYbQtlTqtqi',#20,'Basic Wall:Exterior - 300mm Concrete:471885',$,'Basic Wall:Exterior - 300mm Concrete',#3358,#3369,'471885')</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>35</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>491</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>8468.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>27</v>
+      </c>
+      <c r="V26" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>S25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>#3450=IfcWall('3TtUR3$o5ASfYbQtlTqtql',#20,'Basic Wall:Exterior - 225mm Concrete:471886',$,'Basic Wall:Exterior - 225mm Concrete',#3384,#3449,'471886')</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>35</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>491</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>100</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>91201.14999999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#3475=IfcWallStandardCase('3TtUR3$o5ASfYbQtlTqtlQ',#20,'Basic Wall:Exterior - 300mm Concrete:472507',$,'Basic Wall:Exterior - 300mm Concrete',#3463,#3474,'472507')</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>35</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>491</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>100</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>8468.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>27</v>
+      </c>
+      <c r="V28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>#3578=IfcWall('3TtUR3$o5ASfYbQtlTqtlT',#20,'Basic Wall:Exterior - 225mm Concrete:472508',$,'Basic Wall:Exterior - 225mm Concrete',#3510,#3577,'472508')</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>35</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>491</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>100</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>91201.14999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>#3607=IfcWallStandardCase('3TtUR3$o5ASfYbQtlTqtYO',#20,'Basic Wall:Exterior - 300mm Concrete:472825',$,'Basic Wall:Exterior - 300mm Concrete',#3595,#3606,'472825')</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>35</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.722</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>491</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>100</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>6625.476000000001</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>27</v>
+      </c>
+      <c r="V30" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>S29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>#3633=IfcWallStandardCase('3TtUR3$o5ASfYbQtlTqtYR',#20,'Basic Wall:Exterior - 225mm Concrete:472826',$,'Basic Wall:Exterior - 225mm Concrete',#3621,#3632,'472826')</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>35</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J31" t="n">
+        <v>80.652</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>491</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>100</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>75812.88</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>197.34</v>
+      </c>
+      <c r="V31" t="n">
+        <v>197.34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>#10206=IfcWindow('389WSRrfb46eCb6n$sCVLu',#20,'Awning - 1L:AW1212:480149',$,'Awning - 1L:AW1212',#10205,#10202,'480149',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>IfcWindow</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Window</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Window</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I32" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>200</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>70</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>2.63538</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>S31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>#10225=IfcWindow('389WSRrfb46eCb6n$sCVLn',#20,'Awning - 1L:AW1212:480156',$,'Awning - 1L:AW1212',#10224,#10221,'480156',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IfcWindow</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I33" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>200</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>70</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>2.63538</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>#10240=IfcWindow('389WSRrfb46eCb6n$sCVLK',#20,'Awning - 1L:AW1212:480185',$,'Awning - 1L:AW1212',#10239,#10236,'480185',1.2000000000000013,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>IfcWindow</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>200</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>70</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>#10336=IfcWindow('389WSRrfb46eCb6n$sCVK4',#20,'Awning - 1LT:AW1812:480233',$,'Awning - 1LT:AW1812',#10335,#10332,'480233',1.8000000000000023,1.2100000000000051)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IfcWindow</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>491</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>10.72994518</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>100</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.25</v>
+      <c r="I35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>200</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>70</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
